--- a/data/trans_dic/PLURIPATOLOGIA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Edad-trans_dic.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,19</t>
+          <t>0,0; 0,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,16</t>
+          <t>0,62; 5,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,7</t>
+          <t>0,0; 0,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,85</t>
+          <t>0,32; 2,86</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,72</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +879,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,18</t>
+          <t>0,92; 3,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,52</t>
+          <t>0,44; 2,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,36</t>
+          <t>0,48; 2,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,51</t>
+          <t>1,5; 4,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,61</t>
+          <t>0,49; 1,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,33</t>
+          <t>0,28; 1,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,12</t>
+          <t>0,24; 1,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,84</t>
+          <t>1,02; 2,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,78</t>
+          <t>0,3; 1,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,37</t>
+          <t>0,13; 1,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,33</t>
+          <t>1,92; 5,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,18</t>
+          <t>1,13; 3,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,63</t>
+          <t>2,03; 4,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,68</t>
+          <t>1,4; 3,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,15</t>
+          <t>3,2; 6,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,1</t>
+          <t>0,9; 2,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,59</t>
+          <t>1,18; 2,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,12</t>
+          <t>0,81; 2,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,16</t>
+          <t>2,97; 5,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,76</t>
+          <t>1,06; 3,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,68</t>
+          <t>1,07; 3,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,03</t>
+          <t>1,34; 4,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,31</t>
+          <t>4,29; 8,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 7,12</t>
+          <t>3,37; 7,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,05</t>
+          <t>4,76; 9,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,22</t>
+          <t>5,1; 9,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 17,15</t>
+          <t>11,49; 17,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,89</t>
+          <t>2,55; 5,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,71</t>
+          <t>3,29; 5,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,03</t>
+          <t>3,61; 6,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,41; 11,88</t>
+          <t>8,32; 11,85</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 9,22</t>
+          <t>3,85; 8,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,54</t>
+          <t>2,46; 6,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 7,81</t>
+          <t>3,27; 7,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,77; 14,13</t>
+          <t>8,96; 13,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,54</t>
+          <t>7,53; 13,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 19,43</t>
+          <t>12,25; 19,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 19,29</t>
+          <t>12,45; 19,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,72; 21,82</t>
+          <t>16,65; 21,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,17</t>
+          <t>6,56; 10,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 12,21</t>
+          <t>7,98; 12,24</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,87</t>
+          <t>8,64; 12,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,45; 17,0</t>
+          <t>13,45; 17,08</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,18; 17,33</t>
+          <t>11,24; 16,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,83; 20,23</t>
+          <t>14,07; 20,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,5; 15,5</t>
+          <t>10,29; 15,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,85; 25,79</t>
+          <t>20,93; 25,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,7; 22,7</t>
+          <t>16,62; 23,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,74; 31,54</t>
+          <t>25,09; 31,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,47; 29,44</t>
+          <t>22,47; 29,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,73; 60,43</t>
+          <t>37,78; 61,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,11; 19,45</t>
+          <t>15,12; 19,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,21; 25,92</t>
+          <t>21,0; 25,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,12; 22,52</t>
+          <t>18,09; 22,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>31,41; 49,22</t>
+          <t>31,56; 51,95</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,04</t>
+          <t>2,82; 4,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,53</t>
+          <t>3,13; 4,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,18</t>
+          <t>2,97; 4,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,87; 9,64</t>
+          <t>7,79; 9,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,69</t>
+          <t>5,85; 7,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,94; 11,06</t>
+          <t>8,91; 11,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,71; 10,9</t>
+          <t>8,85; 10,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,35; 27,31</t>
+          <t>16,37; 28,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,65</t>
+          <t>4,56; 5,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,29; 7,56</t>
+          <t>6,28; 7,55</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 7,34</t>
+          <t>6,22; 7,41</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,65; 18,96</t>
+          <t>12,6; 19,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PLURIPATOLOGIA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,59</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,84</t>
+          <t>0,0; 0,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,25</t>
+          <t>0,93; 3,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,47</t>
+          <t>0,45; 2,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,32</t>
+          <t>0,41; 2,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,63</t>
+          <t>0,51; 1,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,28</t>
+          <t>0,28; 1,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,09</t>
+          <t>0,24; 1,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,77</t>
+          <t>0,31; 1,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,2</t>
+          <t>0,13; 1,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,36</t>
+          <t>1,14; 3,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,75</t>
+          <t>2,04; 4,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,62</t>
+          <t>1,5; 3,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,16</t>
+          <t>0,9; 2,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,66</t>
+          <t>1,18; 2,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,06</t>
+          <t>0,77; 2,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,94</t>
+          <t>1,07; 3,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,64</t>
+          <t>1,07; 3,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,01</t>
+          <t>1,44; 4,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,59</t>
+          <t>3,34; 7,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 9,04</t>
+          <t>4,81; 9,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,35</t>
+          <t>5,17; 9,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,04</t>
+          <t>2,44; 4,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,83</t>
+          <t>3,35; 5,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,09</t>
+          <t>3,65; 6,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,92</t>
+          <t>4,17; 9,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,44</t>
+          <t>2,47; 6,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,88</t>
+          <t>3,25; 7,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,37</t>
+          <t>7,74; 13,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,25; 19,39</t>
+          <t>12,46; 19,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,45; 19,56</t>
+          <t>12,68; 19,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,22</t>
+          <t>6,39; 10,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,24</t>
+          <t>8,18; 12,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,74</t>
+          <t>8,75; 12,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,24; 16,99</t>
+          <t>11,34; 17,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,07; 20,53</t>
+          <t>13,77; 20,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,29; 15,53</t>
+          <t>10,17; 15,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,62; 23,0</t>
+          <t>16,79; 22,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,09; 31,64</t>
+          <t>24,97; 31,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,47; 29,21</t>
+          <t>22,61; 29,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,12; 19,6</t>
+          <t>15,37; 19,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,0; 25,91</t>
+          <t>21,11; 25,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,09; 22,95</t>
+          <t>18,03; 22,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,15</t>
+          <t>2,84; 4,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,51</t>
+          <t>3,15; 4,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 4,19</t>
+          <t>2,94; 4,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,54</t>
+          <t>5,83; 7,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,91; 11,01</t>
+          <t>8,93; 10,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,86</t>
+          <t>8,69; 10,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,61</t>
+          <t>4,56; 5,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,55</t>
+          <t>6,31; 7,5</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 7,41</t>
+          <t>6,17; 7,43</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/PLURIPATOLOGIA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,28</t>
+          <t>0,0; 0,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,87</t>
+          <t>0,64; 6,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,77</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,86</t>
+          <t>0,32; 2,85</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,68</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,75</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +879,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,42</t>
+          <t>0,89; 3,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,39</t>
+          <t>0,47; 2,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,44</t>
+          <t>0,48; 2,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,81</t>
+          <t>1,47; 4,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,62</t>
+          <t>0,46; 1,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,4</t>
+          <t>0,26; 1,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,15</t>
+          <t>0,2; 1,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,85</t>
+          <t>1,0; 2,84</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,91</t>
+          <t>0,29; 1,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,12</t>
+          <t>0,13; 1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,27</t>
+          <t>1,91; 5,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,21</t>
+          <t>1,13; 3,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,69</t>
+          <t>1,9; 4,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,73</t>
+          <t>1,52; 3,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,18</t>
+          <t>3,12; 6,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,22</t>
+          <t>0,84; 2,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,6</t>
+          <t>1,17; 2,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,11</t>
+          <t>0,86; 2,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,2</t>
+          <t>2,95; 5,16</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,96</t>
+          <t>1,0; 3,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,74</t>
+          <t>1,07; 3,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,07</t>
+          <t>1,45; 4,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,47</t>
+          <t>4,15; 8,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,57</t>
+          <t>3,23; 7,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 9,32</t>
+          <t>4,77; 9,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,23</t>
+          <t>4,94; 9,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,49; 17,18</t>
+          <t>11,55; 17,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,88</t>
+          <t>2,61; 4,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,76</t>
+          <t>3,18; 5,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,07</t>
+          <t>3,72; 6,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,32; 11,85</t>
+          <t>8,41; 11,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,05</t>
+          <t>4,05; 9,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,57</t>
+          <t>2,48; 6,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,86</t>
+          <t>3,23; 7,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,96; 13,75</t>
+          <t>8,77; 14,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 13,97</t>
+          <t>7,38; 13,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,46; 19,52</t>
+          <t>12,43; 19,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,68; 19,76</t>
+          <t>12,56; 19,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,65; 21,98</t>
+          <t>16,72; 21,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,33</t>
+          <t>6,46; 10,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,3</t>
+          <t>8,11; 12,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,87</t>
+          <t>8,59; 12,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,45; 17,08</t>
+          <t>13,45; 17,0</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,34; 17,25</t>
+          <t>11,18; 17,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,77; 20,39</t>
+          <t>13,83; 20,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,17; 15,44</t>
+          <t>10,5; 15,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,93; 25,87</t>
+          <t>20,85; 25,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,79; 22,83</t>
+          <t>16,7; 22,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,97; 31,77</t>
+          <t>24,74; 31,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,61; 29,47</t>
+          <t>22,47; 29,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,78; 61,7</t>
+          <t>37,73; 60,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,37; 19,6</t>
+          <t>15,11; 19,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,11; 25,98</t>
+          <t>21,21; 25,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,03; 22,92</t>
+          <t>18,12; 22,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>31,56; 51,95</t>
+          <t>31,41; 49,22</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,09</t>
+          <t>2,82; 4,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 4,52</t>
+          <t>3,13; 4,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,15</t>
+          <t>2,88; 4,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,79; 9,71</t>
+          <t>7,87; 9,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,63</t>
+          <t>5,89; 7,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,93; 10,99</t>
+          <t>8,94; 11,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 10,91</t>
+          <t>8,71; 10,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,37; 28,23</t>
+          <t>16,35; 27,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,66</t>
+          <t>4,56; 5,65</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,31; 7,5</t>
+          <t>6,29; 7,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,17; 7,43</t>
+          <t>6,13; 7,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,6; 19,87</t>
+          <t>12,65; 18,96</t>
         </is>
       </c>
     </row>
